--- a/biology/Zoologie/Avemetatarsalia/Avemetatarsalia.xlsx
+++ b/biology/Zoologie/Avemetatarsalia/Avemetatarsalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avemetatarsalia (signifiant « métatarses d'oiseaux ») est un clade d'archosaures établi par le paléontologue britannique Michael Benton en 1999 pour le groupe souche des ornithodires au sein de ces derniers. Il comprend donc tout animal plus proche des oiseaux que des crocodiles qui appartiennent, eux, au groupe frère des Pseudosuchia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avemetatarsalia (signifiant « métatarses d'oiseaux ») est un clade d'archosaures établi par le paléontologue britannique Michael Benton en 1999 pour le groupe souche des ornithodires au sein de ces derniers. Il comprend donc tout animal plus proche des oiseaux que des crocodiles qui appartiennent, eux, au groupe frère des Pseudosuchia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladogramme de la branche Avemetatarsalia d'après Nesbitt (2011) et Nesbitt et al. (2017) :
 </t>
